--- a/StructureDefinition-hiv-viral-load-suppression.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T07:37:47+00:00</t>
+    <t>2021-09-07T11:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T11:28:37+00:00</t>
+    <t>2021-09-16T07:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-16T07:55:33+00:00</t>
+    <t>2021-10-01T07:57:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T07:57:23+00:00</t>
+    <t>2021-10-01T08:08:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:08:42+00:00</t>
+    <t>2021-10-01T08:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:12:33+00:00</t>
+    <t>2022-06-22T18:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-22T18:40:24+00:00</t>
+    <t>2022-08-17T09:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1783,37 +1783,37 @@
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="17.96484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="65.12109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-hiv-viral-load-suppression.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="458">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T09:42:33+00:00</t>
+    <t>2022-09-13T13:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -299,7 +299,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -1166,6 +1166,10 @@
   </si>
   <si>
     <t>Observation.referenceRange.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -5981,13 +5985,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>367</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6038,7 +6042,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6062,7 +6066,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6073,7 +6077,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6102,7 +6106,7 @@
         <v>138</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>140</v>
@@ -6155,7 +6159,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6179,7 +6183,7 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6190,11 +6194,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6216,10 +6220,10 @@
         <v>137</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>140</v>
@@ -6274,7 +6278,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6309,7 +6313,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6332,13 +6336,13 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6389,7 +6393,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6398,7 +6402,7 @@
         <v>91</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>103</v>
@@ -6410,10 +6414,10 @@
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6424,7 +6428,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6447,13 +6451,13 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6504,7 +6508,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6513,7 +6517,7 @@
         <v>91</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>103</v>
@@ -6525,10 +6529,10 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6539,7 +6543,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6565,16 +6569,16 @@
         <v>189</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>81</v>
@@ -6602,10 +6606,10 @@
         <v>115</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>81</v>
@@ -6623,7 +6627,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6641,10 +6645,10 @@
         <v>81</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>306</v>
@@ -6658,7 +6662,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6684,16 +6688,16 @@
         <v>189</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>81</v>
@@ -6721,10 +6725,10 @@
         <v>205</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>81</v>
@@ -6742,7 +6746,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6760,10 +6764,10 @@
         <v>81</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>306</v>
@@ -6777,7 +6781,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6800,17 +6804,17 @@
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
@@ -6859,7 +6863,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6883,7 +6887,7 @@
         <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6894,7 +6898,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6917,13 +6921,13 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>93</v>
+        <v>367</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6974,7 +6978,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -6995,10 +6999,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7009,7 +7013,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7032,16 +7036,16 @@
         <v>92</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7091,7 +7095,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7112,10 +7116,10 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7126,7 +7130,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7149,16 +7153,16 @@
         <v>92</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7208,7 +7212,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7229,10 +7233,10 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7243,7 +7247,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7269,16 +7273,16 @@
         <v>358</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7327,7 +7331,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7348,10 +7352,10 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7362,7 +7366,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7385,13 +7389,13 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>93</v>
+        <v>367</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7442,7 +7446,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7466,7 +7470,7 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7477,7 +7481,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7506,7 +7510,7 @@
         <v>138</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>140</v>
@@ -7559,7 +7563,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7583,7 +7587,7 @@
         <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -7594,11 +7598,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7620,10 +7624,10 @@
         <v>137</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>140</v>
@@ -7678,7 +7682,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7713,7 +7717,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7739,13 +7743,13 @@
         <v>189</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>203</v>
@@ -7797,7 +7801,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>91</v>
@@ -7815,7 +7819,7 @@
         <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>210</v>
@@ -7832,7 +7836,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7855,16 +7859,16 @@
         <v>92</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>275</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>277</v>
@@ -7916,7 +7920,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7934,7 +7938,7 @@
         <v>81</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>280</v>
@@ -7951,7 +7955,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7977,13 +7981,13 @@
         <v>189</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>288</v>
@@ -8035,7 +8039,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8070,7 +8074,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8154,7 +8158,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8189,7 +8193,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8215,10 +8219,10 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>361</v>
@@ -8273,7 +8277,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-hiv-viral-load-suppression.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-13T13:24:33+00:00</t>
+    <t>2022-09-14T08:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:32:49+00:00</t>
+    <t>2022-09-14T08:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:40:35+00:00</t>
+    <t>2022-09-14T09:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:10:35+00:00</t>
+    <t>2022-09-16T12:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T12:02:49+00:00</t>
+    <t>2022-09-19T10:13:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5252,7 +5252,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>312</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>

--- a/StructureDefinition-hiv-viral-load-suppression.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T10:13:53+00:00</t>
+    <t>2022-09-19T11:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:28:39+00:00</t>
+    <t>2022-09-19T11:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:39:45+00:00</t>
+    <t>2022-09-19T11:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:47:22+00:00</t>
+    <t>2022-10-06T11:53:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T11:53:08+00:00</t>
+    <t>2022-10-06T13:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load-suppression.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T13:57:21+00:00</t>
+    <t>2022-10-06T14:49:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
